--- a/Music and Memory/LyricMod/Modified Lyrics/1_ModsforMatlab.xlsx
+++ b/Music and Memory/LyricMod/Modified Lyrics/1_ModsforMatlab.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asternin/Documents/PhDProject.git/Music and Memory - Lucy/PilotTest/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asternin\Documents\PhDProject.git\Music and Memory\LyricMod\Modified Lyrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="800" windowWidth="38000" windowHeight="17500" tabRatio="500"/>
+    <workbookView xWindow="75" yWindow="795" windowWidth="37995" windowHeight="17505" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Line Modifications" sheetId="14" r:id="rId1"/>
@@ -28,11 +28,8 @@
     <sheet name="Waving not Drowning" sheetId="11" r:id="rId14"/>
     <sheet name="Yeah Yeah" sheetId="12" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -4374,7 +4371,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5308,6 +5305,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -5636,20 +5636,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C16" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" style="39" customWidth="1"/>
+    <col min="1" max="1" width="13.625" style="39" customWidth="1"/>
     <col min="3" max="3" width="79.5" customWidth="1"/>
-    <col min="4" max="4" width="81.83203125" customWidth="1"/>
-    <col min="5" max="5" width="77.33203125" customWidth="1"/>
-    <col min="6" max="6" width="61.33203125" customWidth="1"/>
+    <col min="4" max="4" width="81.875" customWidth="1"/>
+    <col min="5" max="5" width="77.375" customWidth="1"/>
+    <col min="6" max="6" width="61.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="61" t="s">
         <v>88</v>
       </c>
@@ -5669,7 +5669,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="39" t="s">
         <v>90</v>
       </c>
@@ -5690,7 +5690,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="B3">
         <v>2</v>
       </c>
@@ -5708,7 +5708,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="B4">
         <v>3</v>
       </c>
@@ -5726,7 +5726,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="B5" t="s">
         <v>91</v>
       </c>
@@ -5744,7 +5744,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="39" t="s">
         <v>94</v>
       </c>
@@ -5765,7 +5765,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="B8">
         <v>2</v>
       </c>
@@ -5783,7 +5783,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="B9">
         <v>3</v>
       </c>
@@ -5801,7 +5801,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="B10" t="s">
         <v>91</v>
       </c>
@@ -5819,7 +5819,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" s="39" t="s">
         <v>289</v>
       </c>
@@ -5840,7 +5840,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="B13" s="7">
         <v>2</v>
       </c>
@@ -5858,7 +5858,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="B14" s="7">
         <v>3</v>
       </c>
@@ -5876,7 +5876,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="B15" s="7" t="s">
         <v>91</v>
       </c>
@@ -5894,7 +5894,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" s="39" t="s">
         <v>290</v>
       </c>
@@ -5915,7 +5915,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="B18" s="7">
         <v>2</v>
       </c>
@@ -5933,7 +5933,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="B19" s="7">
         <v>3</v>
       </c>
@@ -5951,7 +5951,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="B20" s="7" t="s">
         <v>91</v>
       </c>
@@ -5969,7 +5969,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" s="39" t="s">
         <v>291</v>
       </c>
@@ -5990,7 +5990,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="B23" s="7">
         <v>2</v>
       </c>
@@ -6008,7 +6008,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="B24" s="7">
         <v>3</v>
       </c>
@@ -6026,7 +6026,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="B25" s="7" t="s">
         <v>91</v>
       </c>
@@ -6044,7 +6044,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" s="39" t="s">
         <v>292</v>
       </c>
@@ -6065,7 +6065,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="B28" s="7">
         <v>2</v>
       </c>
@@ -6083,7 +6083,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="B29" s="7">
         <v>3</v>
       </c>
@@ -6101,7 +6101,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="B30" s="7" t="s">
         <v>91</v>
       </c>
@@ -6119,7 +6119,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" s="39" t="s">
         <v>293</v>
       </c>
@@ -6140,7 +6140,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="B33" s="7">
         <v>2</v>
       </c>
@@ -6158,7 +6158,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="B34" s="7">
         <v>3</v>
       </c>
@@ -6176,7 +6176,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="B35" s="7" t="s">
         <v>91</v>
       </c>
@@ -6194,7 +6194,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37" s="39" t="s">
         <v>294</v>
       </c>
@@ -6215,7 +6215,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="B38" s="7">
         <v>2</v>
       </c>
@@ -6233,7 +6233,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6">
       <c r="B39" s="7">
         <v>3</v>
       </c>
@@ -6251,7 +6251,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6">
       <c r="B40" s="7" t="s">
         <v>91</v>
       </c>
@@ -6269,7 +6269,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6">
       <c r="A42" s="39" t="s">
         <v>295</v>
       </c>
@@ -6290,7 +6290,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6">
       <c r="B43" s="7">
         <v>2</v>
       </c>
@@ -6308,7 +6308,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6">
       <c r="B44" s="7">
         <v>3</v>
       </c>
@@ -6326,7 +6326,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6">
       <c r="B45" s="7" t="s">
         <v>91</v>
       </c>
@@ -6344,7 +6344,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6">
       <c r="A47" s="39" t="s">
         <v>296</v>
       </c>
@@ -6365,7 +6365,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6">
       <c r="B48" s="7">
         <v>2</v>
       </c>
@@ -6383,7 +6383,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6">
       <c r="B49" s="7">
         <v>3</v>
       </c>
@@ -6401,7 +6401,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6">
       <c r="B50" s="7" t="s">
         <v>91</v>
       </c>
@@ -6419,7 +6419,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6">
       <c r="A52" s="39" t="s">
         <v>297</v>
       </c>
@@ -6440,7 +6440,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6">
       <c r="B53" s="7">
         <v>2</v>
       </c>
@@ -6458,7 +6458,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6">
       <c r="B54" s="7" t="s">
         <v>91</v>
       </c>
@@ -6476,7 +6476,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6">
       <c r="B55" s="7" t="s">
         <v>91</v>
       </c>
@@ -6494,7 +6494,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6">
       <c r="A57" s="39" t="s">
         <v>298</v>
       </c>
@@ -6515,7 +6515,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6">
       <c r="B58" s="7">
         <v>2</v>
       </c>
@@ -6533,7 +6533,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6">
       <c r="B59" s="7">
         <v>3</v>
       </c>
@@ -6551,7 +6551,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6">
       <c r="B60" s="7" t="s">
         <v>91</v>
       </c>
@@ -6583,12 +6583,12 @@
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="13" max="13" width="49.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -6644,7 +6644,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6663,7 +6663,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6700,7 +6700,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" s="6" customFormat="1">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -6719,7 +6719,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6750,7 +6750,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" s="31" customFormat="1">
       <c r="A6" s="31">
         <v>5</v>
       </c>
@@ -6778,7 +6778,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6806,7 +6806,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6828,7 +6828,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" s="15" customFormat="1">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -6847,7 +6847,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6866,7 +6866,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" s="6" customFormat="1">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -6900,7 +6900,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>11</v>
       </c>
@@ -6928,7 +6928,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>12</v>
       </c>
@@ -6956,7 +6956,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>13</v>
       </c>
@@ -6984,7 +6984,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>14</v>
       </c>
@@ -7012,7 +7012,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>15</v>
       </c>
@@ -7049,7 +7049,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>16</v>
       </c>
@@ -7074,7 +7074,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" s="15" customFormat="1">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -7093,7 +7093,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>18</v>
       </c>
@@ -7109,7 +7109,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>19</v>
       </c>
@@ -7128,7 +7128,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>20</v>
       </c>
@@ -7150,7 +7150,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22">
         <v>21</v>
       </c>
@@ -7175,7 +7175,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" s="6" customFormat="1">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -7206,7 +7206,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13">
       <c r="A24">
         <v>23</v>
       </c>
@@ -7234,7 +7234,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13">
       <c r="A25">
         <v>24</v>
       </c>
@@ -7262,7 +7262,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13">
       <c r="A26">
         <v>25</v>
       </c>
@@ -7290,7 +7290,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13">
       <c r="A27">
         <v>26</v>
       </c>
@@ -7327,15 +7327,15 @@
         <v>182</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13">
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13">
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13">
       <c r="A30" s="7" t="s">
         <v>260</v>
       </c>
@@ -7348,7 +7348,7 @@
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13">
       <c r="A31" s="7">
         <v>1</v>
       </c>
@@ -7361,7 +7361,7 @@
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13">
       <c r="A32" s="7">
         <v>2</v>
       </c>
@@ -7374,7 +7374,7 @@
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10">
       <c r="A33" s="7">
         <v>3</v>
       </c>
@@ -7387,179 +7387,179 @@
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10">
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10">
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10">
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10">
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10">
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10">
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10">
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10">
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10">
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10">
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10">
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10">
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10">
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10">
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10">
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
     </row>
-    <row r="49" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="9:10">
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
     </row>
-    <row r="50" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="9:10">
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
     </row>
-    <row r="51" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="9:10">
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
     </row>
-    <row r="52" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="9:10">
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
     </row>
-    <row r="53" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="9:10">
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
     </row>
-    <row r="54" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="9:10">
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
     </row>
-    <row r="55" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="9:10">
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
     </row>
-    <row r="56" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="9:10">
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
     </row>
-    <row r="57" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="9:10">
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
     </row>
-    <row r="58" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="9:10">
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
     </row>
-    <row r="59" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="9:10">
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
     </row>
-    <row r="60" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="9:10">
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
     </row>
-    <row r="61" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="9:10">
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
     </row>
-    <row r="62" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="9:10">
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
     </row>
-    <row r="63" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="9:10">
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
     </row>
-    <row r="64" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="9:10">
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
     </row>
-    <row r="65" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="9:10">
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
     </row>
-    <row r="66" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="9:10">
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
     </row>
-    <row r="67" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="9:10">
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
     </row>
-    <row r="68" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="9:10">
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
     </row>
-    <row r="69" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="9:10">
       <c r="I69" s="7"/>
       <c r="J69" s="7"/>
     </row>
-    <row r="70" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="9:10">
       <c r="I70" s="7"/>
       <c r="J70" s="7"/>
     </row>
-    <row r="71" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="9:10">
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
     </row>
-    <row r="72" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="9:10">
       <c r="I72" s="7"/>
       <c r="J72" s="7"/>
     </row>
-    <row r="73" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="9:10">
       <c r="I73" s="7"/>
       <c r="J73" s="7"/>
     </row>
-    <row r="74" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="9:10">
       <c r="I74" s="7"/>
       <c r="J74" s="7"/>
     </row>
-    <row r="75" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="9:10">
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
     </row>
-    <row r="76" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="9:10">
       <c r="I76" s="7"/>
       <c r="J76" s="7"/>
     </row>
-    <row r="77" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="9:10">
       <c r="I77" s="7"/>
       <c r="J77" s="7"/>
     </row>
@@ -7590,13 +7590,13 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="14" max="14" width="51.83203125" customWidth="1"/>
-    <col min="17" max="19" width="10.83203125" style="17"/>
+    <col min="14" max="14" width="51.875" customWidth="1"/>
+    <col min="17" max="19" width="10.875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -7652,7 +7652,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" s="9" customFormat="1">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -7696,7 +7696,7 @@
       </c>
       <c r="S2" s="18"/>
     </row>
-    <row r="3" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" s="11" customFormat="1">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -7741,7 +7741,7 @@
       <c r="R3" s="19"/>
       <c r="S3" s="19"/>
     </row>
-    <row r="4" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" s="25" customFormat="1">
       <c r="A4" s="24">
         <v>3</v>
       </c>
@@ -7777,7 +7777,7 @@
       <c r="R4" s="27"/>
       <c r="S4" s="27"/>
     </row>
-    <row r="5" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" s="35" customFormat="1">
       <c r="A5" s="34">
         <v>4</v>
       </c>
@@ -7824,7 +7824,7 @@
       </c>
       <c r="S5" s="20"/>
     </row>
-    <row r="6" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" s="37" customFormat="1">
       <c r="A6" s="36">
         <v>5</v>
       </c>
@@ -7865,7 +7865,7 @@
       </c>
       <c r="S6" s="38"/>
     </row>
-    <row r="7" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" s="11" customFormat="1">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -7915,7 +7915,7 @@
       </c>
       <c r="S7" s="19"/>
     </row>
-    <row r="8" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" s="11" customFormat="1">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -7953,7 +7953,7 @@
       </c>
       <c r="S8" s="19"/>
     </row>
-    <row r="9" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" s="15" customFormat="1">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -7991,7 +7991,7 @@
       </c>
       <c r="S9" s="21"/>
     </row>
-    <row r="10" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" s="11" customFormat="1">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -8036,7 +8036,7 @@
       <c r="R10" s="19"/>
       <c r="S10" s="19"/>
     </row>
-    <row r="11" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" s="11" customFormat="1">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -8074,7 +8074,7 @@
       </c>
       <c r="S11" s="19"/>
     </row>
-    <row r="12" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" s="11" customFormat="1">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -8112,7 +8112,7 @@
       </c>
       <c r="S12" s="19"/>
     </row>
-    <row r="13" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" s="11" customFormat="1">
       <c r="A13" s="10">
         <v>12</v>
       </c>
@@ -8148,7 +8148,7 @@
       <c r="R13" s="19"/>
       <c r="S13" s="19"/>
     </row>
-    <row r="14" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" s="11" customFormat="1">
       <c r="A14" s="10">
         <v>13</v>
       </c>
@@ -8187,7 +8187,7 @@
       <c r="R14" s="19"/>
       <c r="S14" s="19"/>
     </row>
-    <row r="15" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" s="11" customFormat="1">
       <c r="A15" s="10">
         <v>14</v>
       </c>
@@ -8228,7 +8228,7 @@
       </c>
       <c r="S15" s="19"/>
     </row>
-    <row r="16" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" s="11" customFormat="1">
       <c r="A16" s="13">
         <v>15</v>
       </c>
@@ -8266,7 +8266,7 @@
       </c>
       <c r="S16" s="19"/>
     </row>
-    <row r="17" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" s="35" customFormat="1">
       <c r="A17" s="34">
         <v>16</v>
       </c>
@@ -8313,7 +8313,7 @@
       </c>
       <c r="S17" s="20"/>
     </row>
-    <row r="18" spans="1:19" s="53" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" s="53" customFormat="1">
       <c r="A18" s="53">
         <v>17</v>
       </c>
@@ -8351,7 +8351,7 @@
       </c>
       <c r="S18" s="56"/>
     </row>
-    <row r="19" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" s="22" customFormat="1">
       <c r="A19" s="57">
         <v>18</v>
       </c>
@@ -8389,7 +8389,7 @@
       </c>
       <c r="S19" s="27"/>
     </row>
-    <row r="20" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" s="35" customFormat="1">
       <c r="A20" s="34">
         <v>19</v>
       </c>
@@ -8434,7 +8434,7 @@
       <c r="R20" s="20"/>
       <c r="S20" s="20"/>
     </row>
-    <row r="21" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" s="11" customFormat="1">
       <c r="A21" s="10">
         <v>20</v>
       </c>
@@ -8472,7 +8472,7 @@
       </c>
       <c r="S21" s="19"/>
     </row>
-    <row r="22" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" s="11" customFormat="1">
       <c r="A22" s="10">
         <v>21</v>
       </c>
@@ -8507,7 +8507,7 @@
       </c>
       <c r="S22" s="19"/>
     </row>
-    <row r="23" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" s="11" customFormat="1">
       <c r="A23" s="10">
         <v>22</v>
       </c>
@@ -8543,7 +8543,7 @@
       <c r="R23" s="19"/>
       <c r="S23" s="19"/>
     </row>
-    <row r="24" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" s="11" customFormat="1">
       <c r="A24" s="10">
         <v>23</v>
       </c>
@@ -8579,7 +8579,7 @@
       <c r="R24" s="19"/>
       <c r="S24" s="19"/>
     </row>
-    <row r="25" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" s="11" customFormat="1">
       <c r="A25" s="10">
         <v>24</v>
       </c>
@@ -8626,7 +8626,7 @@
       </c>
       <c r="S25" s="19"/>
     </row>
-    <row r="26" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" s="11" customFormat="1">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -8664,7 +8664,7 @@
       </c>
       <c r="S26" s="19"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19">
       <c r="A28" s="7" t="s">
         <v>260</v>
       </c>
@@ -8679,7 +8679,7 @@
         <v>10.96</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19">
       <c r="A29" s="7">
         <v>1</v>
       </c>
@@ -8690,7 +8690,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19">
       <c r="A30" s="7">
         <v>2</v>
       </c>
@@ -8704,7 +8704,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19">
       <c r="A31" s="7">
         <v>3</v>
       </c>
@@ -8718,7 +8718,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19">
       <c r="N32" s="31" t="s">
         <v>84</v>
       </c>
@@ -8745,12 +8745,12 @@
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="13" max="13" width="58.33203125" customWidth="1"/>
+    <col min="13" max="13" width="58.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -8806,7 +8806,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8822,7 +8822,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8841,7 +8841,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8857,7 +8857,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" s="6" customFormat="1">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -8873,7 +8873,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8889,7 +8889,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8905,7 +8905,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8927,7 +8927,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="47" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" s="47" customFormat="1">
       <c r="A9" s="47">
         <v>8</v>
       </c>
@@ -8943,7 +8943,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8962,7 +8962,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>10</v>
       </c>
@@ -8978,7 +8978,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>11</v>
       </c>
@@ -9009,7 +9009,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>12</v>
       </c>
@@ -9046,7 +9046,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>13</v>
       </c>
@@ -9065,7 +9065,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" s="6" customFormat="1">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -9081,7 +9081,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>15</v>
       </c>
@@ -9097,7 +9097,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>16</v>
       </c>
@@ -9113,7 +9113,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" s="15" customFormat="1">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -9132,7 +9132,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" s="6" customFormat="1">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -9151,7 +9151,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>19</v>
       </c>
@@ -9170,7 +9170,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>20</v>
       </c>
@@ -9186,7 +9186,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22">
         <v>21</v>
       </c>
@@ -9202,7 +9202,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23">
         <v>22</v>
       </c>
@@ -9227,7 +9227,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13">
       <c r="A24">
         <v>23</v>
       </c>
@@ -9243,7 +9243,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13">
       <c r="A25">
         <v>24</v>
       </c>
@@ -9259,7 +9259,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13">
       <c r="A26">
         <v>25</v>
       </c>
@@ -9275,207 +9275,207 @@
         <v>203</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13">
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13">
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13">
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13">
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13">
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13">
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
     </row>
-    <row r="33" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="9:10">
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
     </row>
-    <row r="34" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="9:10">
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
     </row>
-    <row r="35" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="9:10">
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
     </row>
-    <row r="36" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="9:10">
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
     </row>
-    <row r="37" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="9:10">
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
     </row>
-    <row r="38" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="9:10">
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
     </row>
-    <row r="39" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="9:10">
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
     </row>
-    <row r="40" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="9:10">
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
     </row>
-    <row r="41" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="9:10">
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
     </row>
-    <row r="42" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="9:10">
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
     </row>
-    <row r="43" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="9:10">
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
     </row>
-    <row r="44" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="9:10">
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
     </row>
-    <row r="45" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="9:10">
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
     </row>
-    <row r="46" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="9:10">
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
     </row>
-    <row r="47" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="9:10">
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
     </row>
-    <row r="48" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="9:10">
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
     </row>
-    <row r="49" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="9:10">
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
     </row>
-    <row r="50" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="9:10">
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
     </row>
-    <row r="51" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="9:10">
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
     </row>
-    <row r="52" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="9:10">
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
     </row>
-    <row r="53" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="9:10">
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
     </row>
-    <row r="54" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="9:10">
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
     </row>
-    <row r="55" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="9:10">
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
     </row>
-    <row r="56" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="9:10">
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
     </row>
-    <row r="57" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="9:10">
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
     </row>
-    <row r="58" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="9:10">
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
     </row>
-    <row r="59" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="9:10">
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
     </row>
-    <row r="60" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="9:10">
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
     </row>
-    <row r="61" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="9:10">
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
     </row>
-    <row r="62" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="9:10">
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
     </row>
-    <row r="63" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="9:10">
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
     </row>
-    <row r="64" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="9:10">
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
     </row>
-    <row r="65" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="9:10">
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
     </row>
-    <row r="66" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="9:10">
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
     </row>
-    <row r="67" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="9:10">
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
     </row>
-    <row r="68" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="9:10">
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
     </row>
-    <row r="69" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="9:10">
       <c r="I69" s="7"/>
       <c r="J69" s="7"/>
     </row>
-    <row r="70" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="9:10">
       <c r="I70" s="7"/>
       <c r="J70" s="7"/>
     </row>
-    <row r="71" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="9:10">
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
     </row>
-    <row r="72" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="9:10">
       <c r="I72" s="7"/>
       <c r="J72" s="7"/>
     </row>
-    <row r="73" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="9:10">
       <c r="I73" s="7"/>
       <c r="J73" s="7"/>
     </row>
-    <row r="74" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="9:10">
       <c r="I74" s="7"/>
       <c r="J74" s="7"/>
     </row>
-    <row r="75" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="9:10">
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
     </row>
-    <row r="76" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="9:10">
       <c r="I76" s="7"/>
       <c r="J76" s="7"/>
     </row>
-    <row r="77" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="9:10">
       <c r="I77" s="7"/>
       <c r="J77" s="7"/>
     </row>
@@ -9507,12 +9507,12 @@
       <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="13" max="13" width="60.83203125" customWidth="1"/>
+    <col min="13" max="13" width="60.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -9568,7 +9568,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9587,7 +9587,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9606,7 +9606,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9622,7 +9622,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" s="6" customFormat="1">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -9647,7 +9647,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>5</v>
       </c>
@@ -9684,7 +9684,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>6</v>
       </c>
@@ -9700,7 +9700,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>7</v>
       </c>
@@ -9716,7 +9716,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>8</v>
       </c>
@@ -9735,7 +9735,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" s="15" customFormat="1">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -9751,7 +9751,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" s="6" customFormat="1">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -9767,7 +9767,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>11</v>
       </c>
@@ -9804,7 +9804,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>12</v>
       </c>
@@ -9820,7 +9820,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>13</v>
       </c>
@@ -9839,7 +9839,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" s="31" customFormat="1">
       <c r="A15" s="31">
         <v>14</v>
       </c>
@@ -9858,7 +9858,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>15</v>
       </c>
@@ -9874,7 +9874,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>16</v>
       </c>
@@ -9890,7 +9890,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>17</v>
       </c>
@@ -9909,7 +9909,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" s="15" customFormat="1">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -9946,7 +9946,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>19</v>
       </c>
@@ -9962,7 +9962,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>20</v>
       </c>
@@ -9978,7 +9978,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" s="6" customFormat="1">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -10015,7 +10015,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23">
         <v>22</v>
       </c>
@@ -10031,7 +10031,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13">
       <c r="A24">
         <v>23</v>
       </c>
@@ -10050,7 +10050,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13">
       <c r="A25">
         <v>24</v>
       </c>
@@ -10066,7 +10066,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13">
       <c r="A26">
         <v>25</v>
       </c>
@@ -10082,7 +10082,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13">
       <c r="A27">
         <v>26</v>
       </c>
@@ -10098,7 +10098,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13">
       <c r="A28">
         <v>27</v>
       </c>
@@ -10120,199 +10120,199 @@
         <v>218</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13">
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13">
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13">
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13">
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
     </row>
-    <row r="33" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="9:10">
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
     </row>
-    <row r="34" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="9:10">
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
     </row>
-    <row r="35" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="9:10">
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
     </row>
-    <row r="36" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="9:10">
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
     </row>
-    <row r="37" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="9:10">
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
     </row>
-    <row r="38" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="9:10">
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
     </row>
-    <row r="39" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="9:10">
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
     </row>
-    <row r="40" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="9:10">
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
     </row>
-    <row r="41" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="9:10">
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
     </row>
-    <row r="42" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="9:10">
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
     </row>
-    <row r="43" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="9:10">
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
     </row>
-    <row r="44" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="9:10">
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
     </row>
-    <row r="45" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="9:10">
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
     </row>
-    <row r="46" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="9:10">
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
     </row>
-    <row r="47" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="9:10">
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
     </row>
-    <row r="48" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="9:10">
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
     </row>
-    <row r="49" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="9:10">
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
     </row>
-    <row r="50" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="9:10">
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
     </row>
-    <row r="51" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="9:10">
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
     </row>
-    <row r="52" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="9:10">
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
     </row>
-    <row r="53" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="9:10">
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
     </row>
-    <row r="54" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="9:10">
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
     </row>
-    <row r="55" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="9:10">
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
     </row>
-    <row r="56" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="9:10">
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
     </row>
-    <row r="57" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="9:10">
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
     </row>
-    <row r="58" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="9:10">
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
     </row>
-    <row r="59" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="9:10">
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
     </row>
-    <row r="60" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="9:10">
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
     </row>
-    <row r="61" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="9:10">
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
     </row>
-    <row r="62" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="9:10">
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
     </row>
-    <row r="63" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="9:10">
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
     </row>
-    <row r="64" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="9:10">
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
     </row>
-    <row r="65" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="9:10">
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
     </row>
-    <row r="66" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="9:10">
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
     </row>
-    <row r="67" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="9:10">
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
     </row>
-    <row r="68" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="9:10">
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
     </row>
-    <row r="69" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="9:10">
       <c r="I69" s="7"/>
       <c r="J69" s="7"/>
     </row>
-    <row r="70" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="9:10">
       <c r="I70" s="7"/>
       <c r="J70" s="7"/>
     </row>
-    <row r="71" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="9:10">
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
     </row>
-    <row r="72" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="9:10">
       <c r="I72" s="7"/>
       <c r="J72" s="7"/>
     </row>
-    <row r="73" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="9:10">
       <c r="I73" s="7"/>
       <c r="J73" s="7"/>
     </row>
-    <row r="74" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="9:10">
       <c r="I74" s="7"/>
       <c r="J74" s="7"/>
     </row>
-    <row r="75" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="9:10">
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
     </row>
-    <row r="76" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="9:10">
       <c r="I76" s="7"/>
       <c r="J76" s="7"/>
     </row>
-    <row r="77" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="9:10">
       <c r="I77" s="7"/>
       <c r="J77" s="7"/>
     </row>
@@ -10344,12 +10344,12 @@
       <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="13" max="13" width="65.83203125" customWidth="1"/>
+    <col min="13" max="13" width="65.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -10405,7 +10405,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10439,7 +10439,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>2</v>
       </c>
@@ -10476,7 +10476,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>3</v>
       </c>
@@ -10501,7 +10501,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>4</v>
       </c>
@@ -10535,7 +10535,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" s="6" customFormat="1">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -10554,7 +10554,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>6</v>
       </c>
@@ -10576,7 +10576,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>7</v>
       </c>
@@ -10604,7 +10604,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" s="31" customFormat="1">
       <c r="A9" s="31">
         <v>8</v>
       </c>
@@ -10626,7 +10626,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" s="15" customFormat="1">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -10654,7 +10654,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>10</v>
       </c>
@@ -10673,7 +10673,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>11</v>
       </c>
@@ -10704,7 +10704,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" s="6" customFormat="1">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -10735,7 +10735,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>13</v>
       </c>
@@ -10766,7 +10766,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>14</v>
       </c>
@@ -10782,7 +10782,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>15</v>
       </c>
@@ -10810,7 +10810,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>16</v>
       </c>
@@ -10835,7 +10835,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>17</v>
       </c>
@@ -10863,7 +10863,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" s="15" customFormat="1">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -10885,7 +10885,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>19</v>
       </c>
@@ -10913,7 +10913,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>20</v>
       </c>
@@ -10935,7 +10935,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22">
         <v>21</v>
       </c>
@@ -10960,7 +10960,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23">
         <v>22</v>
       </c>
@@ -10988,7 +10988,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" s="31" customFormat="1">
       <c r="A24" s="31">
         <v>23</v>
       </c>
@@ -11016,7 +11016,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" s="3" customFormat="1">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -11044,7 +11044,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" s="3" customFormat="1">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -11081,7 +11081,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13">
       <c r="A27">
         <v>26</v>
       </c>
@@ -11115,7 +11115,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13">
       <c r="A28">
         <v>27</v>
       </c>
@@ -11137,11 +11137,11 @@
         <v>221</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13">
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13">
       <c r="A30" s="7" t="s">
         <v>260</v>
       </c>
@@ -11154,7 +11154,7 @@
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13">
       <c r="A31" s="7">
         <v>1</v>
       </c>
@@ -11167,7 +11167,7 @@
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13">
       <c r="A32" s="7">
         <v>2</v>
       </c>
@@ -11180,7 +11180,7 @@
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10">
       <c r="A33" s="7">
         <v>3</v>
       </c>
@@ -11193,179 +11193,179 @@
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10">
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10">
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10">
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10">
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10">
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10">
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10">
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10">
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10">
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10">
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10">
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10">
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10">
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10">
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10">
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
     </row>
-    <row r="49" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="9:10">
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
     </row>
-    <row r="50" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="9:10">
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
     </row>
-    <row r="51" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="9:10">
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
     </row>
-    <row r="52" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="9:10">
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
     </row>
-    <row r="53" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="9:10">
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
     </row>
-    <row r="54" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="9:10">
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
     </row>
-    <row r="55" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="9:10">
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
     </row>
-    <row r="56" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="9:10">
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
     </row>
-    <row r="57" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="9:10">
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
     </row>
-    <row r="58" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="9:10">
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
     </row>
-    <row r="59" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="9:10">
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
     </row>
-    <row r="60" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="9:10">
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
     </row>
-    <row r="61" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="9:10">
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
     </row>
-    <row r="62" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="9:10">
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
     </row>
-    <row r="63" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="9:10">
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
     </row>
-    <row r="64" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="9:10">
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
     </row>
-    <row r="65" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="9:10">
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
     </row>
-    <row r="66" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="9:10">
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
     </row>
-    <row r="67" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="9:10">
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
     </row>
-    <row r="68" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="9:10">
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
     </row>
-    <row r="69" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="9:10">
       <c r="I69" s="7"/>
       <c r="J69" s="7"/>
     </row>
-    <row r="70" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="9:10">
       <c r="I70" s="7"/>
       <c r="J70" s="7"/>
     </row>
-    <row r="71" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="9:10">
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
     </row>
-    <row r="72" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="9:10">
       <c r="I72" s="7"/>
       <c r="J72" s="7"/>
     </row>
-    <row r="73" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="9:10">
       <c r="I73" s="7"/>
       <c r="J73" s="7"/>
     </row>
-    <row r="74" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="9:10">
       <c r="I74" s="7"/>
       <c r="J74" s="7"/>
     </row>
-    <row r="75" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="9:10">
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
     </row>
-    <row r="76" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="9:10">
       <c r="I76" s="7"/>
       <c r="J76" s="7"/>
     </row>
-    <row r="77" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="9:10">
       <c r="I77" s="7"/>
       <c r="J77" s="7"/>
     </row>
@@ -11396,13 +11396,13 @@
       <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="12" max="12" width="26.5" customWidth="1"/>
-    <col min="13" max="13" width="53.83203125" customWidth="1"/>
+    <col min="13" max="13" width="53.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -11458,7 +11458,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>1</v>
       </c>
@@ -11481,7 +11481,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>2</v>
       </c>
@@ -11501,7 +11501,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" s="6" customFormat="1">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -11520,7 +11520,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>4</v>
       </c>
@@ -11540,7 +11540,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>5</v>
       </c>
@@ -11560,7 +11560,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>6</v>
       </c>
@@ -11580,7 +11580,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>7</v>
       </c>
@@ -11603,7 +11603,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>8</v>
       </c>
@@ -11623,7 +11623,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>9</v>
       </c>
@@ -11643,7 +11643,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" s="15" customFormat="1">
       <c r="A11" s="15">
         <v>10</v>
       </c>
@@ -11663,7 +11663,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" s="6" customFormat="1">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -11682,7 +11682,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>12</v>
       </c>
@@ -11702,7 +11702,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>13</v>
       </c>
@@ -11722,7 +11722,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>14</v>
       </c>
@@ -11742,7 +11742,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>15</v>
       </c>
@@ -11762,7 +11762,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>16</v>
       </c>
@@ -11782,7 +11782,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" s="6" customFormat="1">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -11798,7 +11798,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>18</v>
       </c>
@@ -11818,7 +11818,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>19</v>
       </c>
@@ -11838,7 +11838,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" s="15" customFormat="1">
       <c r="A21" s="15">
         <v>20</v>
       </c>
@@ -11858,7 +11858,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22">
         <v>21</v>
       </c>
@@ -11878,7 +11878,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23">
         <v>22</v>
       </c>
@@ -11898,7 +11898,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13">
       <c r="A24">
         <v>23</v>
       </c>
@@ -11918,7 +11918,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13">
       <c r="A25">
         <v>24</v>
       </c>
@@ -11938,7 +11938,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13">
       <c r="A26">
         <v>25</v>
       </c>
@@ -11958,7 +11958,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13">
       <c r="A27">
         <v>26</v>
       </c>
@@ -11981,7 +11981,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" s="31" customFormat="1">
       <c r="A28" s="31">
         <v>27</v>
       </c>
@@ -11997,7 +11997,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13">
       <c r="A29">
         <v>28</v>
       </c>
@@ -12020,7 +12020,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13">
       <c r="A30">
         <v>29</v>
       </c>
@@ -12040,191 +12040,191 @@
         <v>252</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13">
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13">
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
     </row>
-    <row r="33" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="9:10">
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
     </row>
-    <row r="34" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="9:10">
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
     </row>
-    <row r="35" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="9:10">
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
     </row>
-    <row r="36" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="9:10">
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
     </row>
-    <row r="37" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="9:10">
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
     </row>
-    <row r="38" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="9:10">
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
     </row>
-    <row r="39" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="9:10">
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
     </row>
-    <row r="40" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="9:10">
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
     </row>
-    <row r="41" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="9:10">
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
     </row>
-    <row r="42" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="9:10">
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
     </row>
-    <row r="43" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="9:10">
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
     </row>
-    <row r="44" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="9:10">
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
     </row>
-    <row r="45" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="9:10">
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
     </row>
-    <row r="46" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="9:10">
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
     </row>
-    <row r="47" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="9:10">
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
     </row>
-    <row r="48" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="9:10">
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
     </row>
-    <row r="49" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="9:10">
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
     </row>
-    <row r="50" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="9:10">
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
     </row>
-    <row r="51" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="9:10">
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
     </row>
-    <row r="52" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="9:10">
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
     </row>
-    <row r="53" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="9:10">
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
     </row>
-    <row r="54" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="9:10">
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
     </row>
-    <row r="55" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="9:10">
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
     </row>
-    <row r="56" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="9:10">
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
     </row>
-    <row r="57" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="9:10">
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
     </row>
-    <row r="58" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="9:10">
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
     </row>
-    <row r="59" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="9:10">
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
     </row>
-    <row r="60" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="9:10">
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
     </row>
-    <row r="61" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="9:10">
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
     </row>
-    <row r="62" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="9:10">
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
     </row>
-    <row r="63" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="9:10">
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
     </row>
-    <row r="64" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="9:10">
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
     </row>
-    <row r="65" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="9:10">
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
     </row>
-    <row r="66" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="9:10">
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
     </row>
-    <row r="67" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="9:10">
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
     </row>
-    <row r="68" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="9:10">
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
     </row>
-    <row r="69" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="9:10">
       <c r="I69" s="7"/>
       <c r="J69" s="7"/>
     </row>
-    <row r="70" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="9:10">
       <c r="I70" s="7"/>
       <c r="J70" s="7"/>
     </row>
-    <row r="71" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="9:10">
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
     </row>
-    <row r="72" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="9:10">
       <c r="I72" s="7"/>
       <c r="J72" s="7"/>
     </row>
-    <row r="73" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="9:10">
       <c r="I73" s="7"/>
       <c r="J73" s="7"/>
     </row>
-    <row r="74" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="9:10">
       <c r="I74" s="7"/>
       <c r="J74" s="7"/>
     </row>
-    <row r="75" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="9:10">
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
     </row>
-    <row r="76" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="9:10">
       <c r="I76" s="7"/>
       <c r="J76" s="7"/>
     </row>
-    <row r="77" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="9:10">
       <c r="I77" s="7"/>
       <c r="J77" s="7"/>
     </row>
@@ -12251,18 +12251,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="12.83203125" customWidth="1"/>
-    <col min="3" max="3" width="53.33203125" customWidth="1"/>
-    <col min="4" max="4" width="52.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="53.375" customWidth="1"/>
+    <col min="4" max="4" width="52.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>90</v>
       </c>
@@ -12279,7 +12279,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="B2">
         <v>2</v>
       </c>
@@ -12293,7 +12293,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="B3">
         <v>3</v>
       </c>
@@ -12307,7 +12307,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="B4" t="s">
         <v>91</v>
       </c>
@@ -12321,7 +12321,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>94</v>
       </c>
@@ -12338,7 +12338,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="B7">
         <v>2</v>
       </c>
@@ -12352,7 +12352,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="B8">
         <v>3</v>
       </c>
@@ -12366,7 +12366,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="B9" t="s">
         <v>91</v>
       </c>
@@ -12380,7 +12380,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>289</v>
       </c>
@@ -12397,7 +12397,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="B12">
         <v>2</v>
       </c>
@@ -12411,7 +12411,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="B13">
         <v>3</v>
       </c>
@@ -12425,7 +12425,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="B14" t="s">
         <v>91</v>
       </c>
@@ -12439,7 +12439,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>291</v>
       </c>
@@ -12456,7 +12456,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="B17">
         <v>2</v>
       </c>
@@ -12470,7 +12470,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="B18">
         <v>3</v>
       </c>
@@ -12484,7 +12484,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="B19" t="s">
         <v>91</v>
       </c>
@@ -12498,7 +12498,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>294</v>
       </c>
@@ -12515,7 +12515,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="B22">
         <v>2</v>
       </c>
@@ -12529,7 +12529,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="B23">
         <v>3</v>
       </c>
@@ -12543,7 +12543,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="B24" t="s">
         <v>91</v>
       </c>
@@ -12557,7 +12557,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>295</v>
       </c>
@@ -12574,7 +12574,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="B27">
         <v>2</v>
       </c>
@@ -12588,7 +12588,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="B28">
         <v>3</v>
       </c>
@@ -12602,7 +12602,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="B29" t="s">
         <v>91</v>
       </c>
@@ -12630,12 +12630,12 @@
       <selection activeCell="E1" sqref="E1:E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="3" max="4" width="73.33203125" customWidth="1"/>
+    <col min="3" max="4" width="73.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="39" t="s">
         <v>290</v>
       </c>
@@ -12652,7 +12652,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="39"/>
       <c r="B2" s="7">
         <v>2</v>
@@ -12667,7 +12667,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="39"/>
       <c r="B3" s="7">
         <v>3</v>
@@ -12682,7 +12682,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="39"/>
       <c r="B4" s="7" t="s">
         <v>91</v>
@@ -12697,7 +12697,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>292</v>
       </c>
@@ -12714,7 +12714,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="B7">
         <v>2</v>
       </c>
@@ -12728,7 +12728,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="B8">
         <v>3</v>
       </c>
@@ -12742,7 +12742,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="B9" t="s">
         <v>91</v>
       </c>
@@ -12756,7 +12756,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>293</v>
       </c>
@@ -12773,7 +12773,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="B12">
         <v>2</v>
       </c>
@@ -12787,7 +12787,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="B13">
         <v>3</v>
       </c>
@@ -12801,7 +12801,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="B14" t="s">
         <v>91</v>
       </c>
@@ -12815,7 +12815,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>296</v>
       </c>
@@ -12832,7 +12832,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="B17">
         <v>2</v>
       </c>
@@ -12846,7 +12846,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="B18">
         <v>3</v>
       </c>
@@ -12860,7 +12860,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="B19" t="s">
         <v>91</v>
       </c>
@@ -12874,7 +12874,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>297</v>
       </c>
@@ -12891,7 +12891,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="B22">
         <v>2</v>
       </c>
@@ -12905,7 +12905,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="B23" t="s">
         <v>91</v>
       </c>
@@ -12919,7 +12919,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="B24" t="s">
         <v>91</v>
       </c>
@@ -12933,7 +12933,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>298</v>
       </c>
@@ -12950,7 +12950,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="B27">
         <v>2</v>
       </c>
@@ -12964,7 +12964,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="B28">
         <v>3</v>
       </c>
@@ -12978,7 +12978,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="B29" t="s">
         <v>91</v>
       </c>
@@ -13005,14 +13005,14 @@
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="12" max="12" width="22.83203125" customWidth="1"/>
-    <col min="13" max="13" width="54.83203125" customWidth="1"/>
-    <col min="17" max="17" width="27.33203125" customWidth="1"/>
+    <col min="12" max="12" width="22.875" customWidth="1"/>
+    <col min="13" max="13" width="54.875" customWidth="1"/>
+    <col min="17" max="17" width="27.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -13069,7 +13069,7 @@
       </c>
       <c r="S1" s="17"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>1</v>
       </c>
@@ -13124,7 +13124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" s="6" customFormat="1">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -13170,7 +13170,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>3</v>
       </c>
@@ -13222,7 +13222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="53" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" s="53" customFormat="1">
       <c r="A5" s="53">
         <v>4</v>
       </c>
@@ -13262,7 +13262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>5</v>
       </c>
@@ -13293,7 +13293,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" s="3" customFormat="1">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -13333,7 +13333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" s="6" customFormat="1">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -13373,7 +13373,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="44" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" s="44" customFormat="1">
       <c r="A9" s="44">
         <v>8</v>
       </c>
@@ -13413,7 +13413,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" s="6" customFormat="1">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -13450,7 +13450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>10</v>
       </c>
@@ -13481,7 +13481,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" s="31" customFormat="1">
       <c r="A12" s="31">
         <v>11</v>
       </c>
@@ -13527,7 +13527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>12</v>
       </c>
@@ -13567,11 +13567,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19">
       <c r="I14" s="41"/>
       <c r="J14" s="41"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19">
       <c r="I15" s="41"/>
       <c r="J15" s="41"/>
       <c r="P15">
@@ -13579,7 +13579,7 @@
         <v>11.333333333333334</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19">
       <c r="A16" t="s">
         <v>253</v>
       </c>
@@ -13595,7 +13595,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>1</v>
       </c>
@@ -13608,7 +13608,7 @@
       <c r="I17" s="41"/>
       <c r="J17" s="42"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>2</v>
       </c>
@@ -13624,7 +13624,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>3</v>
       </c>
@@ -13637,15 +13637,15 @@
       <c r="I19" s="41"/>
       <c r="J19" s="41"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="J20" s="40"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="M22" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="M23" s="31" t="s">
         <v>84</v>
       </c>
@@ -13681,14 +13681,14 @@
       <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="12" max="12" width="10.6640625" customWidth="1"/>
-    <col min="13" max="13" width="58.83203125" customWidth="1"/>
+    <col min="12" max="12" width="10.625" customWidth="1"/>
+    <col min="13" max="13" width="58.875" customWidth="1"/>
     <col min="17" max="17" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -13744,7 +13744,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>1</v>
       </c>
@@ -13778,7 +13778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" s="6" customFormat="1">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -13824,7 +13824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" s="3" customFormat="1">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -13873,7 +13873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>4</v>
       </c>
@@ -13907,7 +13907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="31" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" s="31" customFormat="1" ht="17.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -13953,7 +13953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -14002,7 +14002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" ht="17.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -14051,7 +14051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" s="3" customFormat="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -14091,7 +14091,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>9</v>
       </c>
@@ -14140,7 +14140,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" s="3" customFormat="1">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -14195,7 +14195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>11</v>
       </c>
@@ -14241,7 +14241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" s="15" customFormat="1">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -14275,7 +14275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" ht="17.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -14321,7 +14321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -14370,7 +14370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" ht="17.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -14416,7 +14416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -14459,7 +14459,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17">
       <c r="A18">
         <v>17</v>
       </c>
@@ -14502,7 +14502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17">
       <c r="A19">
         <v>18</v>
       </c>
@@ -14545,7 +14545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" s="6" customFormat="1">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -14579,7 +14579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17">
       <c r="A21">
         <v>20</v>
       </c>
@@ -14619,7 +14619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17">
       <c r="A22">
         <v>21</v>
       </c>
@@ -14665,7 +14665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" s="3" customFormat="1">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -14705,7 +14705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" ht="17.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -14748,7 +14748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" s="15" customFormat="1">
       <c r="A25" s="46">
         <v>24</v>
       </c>
@@ -14794,7 +14794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" ht="17.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -14834,7 +14834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -14877,7 +14877,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17">
       <c r="A28">
         <v>27</v>
       </c>
@@ -14929,7 +14929,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17">
       <c r="A29">
         <v>28</v>
       </c>
@@ -14984,7 +14984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" s="3" customFormat="1">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -15033,7 +15033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" s="6" customFormat="1">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -15067,7 +15067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" ht="17.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -15107,7 +15107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -15153,7 +15153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" ht="17.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -15196,7 +15196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -15236,7 +15236,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17">
       <c r="A36">
         <v>35</v>
       </c>
@@ -15273,11 +15273,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17">
       <c r="I37" s="3"/>
       <c r="J37" s="7"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17">
       <c r="I38" s="3"/>
       <c r="J38" s="7"/>
       <c r="M38" s="23" t="s">
@@ -15288,7 +15288,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17">
       <c r="A39" t="s">
         <v>260</v>
       </c>
@@ -15304,7 +15304,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17">
       <c r="A40">
         <v>1</v>
       </c>
@@ -15320,7 +15320,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17">
       <c r="A41">
         <v>2</v>
       </c>
@@ -15333,7 +15333,7 @@
       <c r="I41" s="3"/>
       <c r="J41" s="7"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17">
       <c r="A42">
         <v>3</v>
       </c>
@@ -15346,201 +15346,201 @@
       <c r="I42" s="3"/>
       <c r="J42" s="7"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17">
       <c r="I43" s="3"/>
       <c r="J43" s="7"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17">
       <c r="I44" s="3"/>
       <c r="J44" s="7"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17">
       <c r="I45" s="3"/>
       <c r="J45" s="7"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17">
       <c r="I46" s="3"/>
       <c r="J46" s="7"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17">
       <c r="I47" s="3"/>
       <c r="J47" s="7"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17">
       <c r="I48" s="3"/>
       <c r="J48" s="7"/>
     </row>
-    <row r="49" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="9:10">
       <c r="I49" s="3"/>
       <c r="J49" s="7"/>
     </row>
-    <row r="50" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="9:10">
       <c r="I50" s="3"/>
       <c r="J50" s="7"/>
     </row>
-    <row r="51" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="9:10">
       <c r="I51" s="3"/>
       <c r="J51" s="7"/>
     </row>
-    <row r="52" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="9:10">
       <c r="I52" s="3"/>
       <c r="J52" s="7"/>
     </row>
-    <row r="53" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="9:10">
       <c r="I53" s="3"/>
       <c r="J53" s="7"/>
     </row>
-    <row r="54" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="9:10">
       <c r="I54" s="3"/>
       <c r="J54" s="7"/>
     </row>
-    <row r="55" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="9:10">
       <c r="I55" s="3"/>
       <c r="J55" s="7"/>
     </row>
-    <row r="56" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="9:10">
       <c r="I56" s="3"/>
       <c r="J56" s="7"/>
     </row>
-    <row r="57" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="9:10">
       <c r="I57" s="3"/>
       <c r="J57" s="7"/>
     </row>
-    <row r="58" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="9:10">
       <c r="I58" s="3"/>
       <c r="J58" s="7"/>
     </row>
-    <row r="59" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="9:10">
       <c r="I59" s="3"/>
       <c r="J59" s="7"/>
     </row>
-    <row r="60" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="9:10">
       <c r="I60" s="3"/>
       <c r="J60" s="7"/>
     </row>
-    <row r="61" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="9:10">
       <c r="I61" s="3"/>
       <c r="J61" s="7"/>
     </row>
-    <row r="62" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="9:10">
       <c r="I62" s="3"/>
       <c r="J62" s="7"/>
     </row>
-    <row r="63" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="9:10">
       <c r="I63" s="3"/>
       <c r="J63" s="7"/>
     </row>
-    <row r="64" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="9:10">
       <c r="I64" s="3"/>
       <c r="J64" s="7"/>
     </row>
-    <row r="65" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="9:10">
       <c r="I65" s="3"/>
       <c r="J65" s="7"/>
     </row>
-    <row r="66" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="9:10">
       <c r="I66" s="3"/>
       <c r="J66" s="7"/>
     </row>
-    <row r="67" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="9:10">
       <c r="I67" s="3"/>
       <c r="J67" s="7"/>
     </row>
-    <row r="68" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="9:10">
       <c r="I68" s="3"/>
       <c r="J68" s="7"/>
     </row>
-    <row r="69" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="9:10">
       <c r="I69" s="3"/>
       <c r="J69" s="7"/>
     </row>
-    <row r="70" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="9:10">
       <c r="I70" s="3"/>
       <c r="J70" s="7"/>
     </row>
-    <row r="71" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="9:10">
       <c r="I71" s="3"/>
       <c r="J71" s="7"/>
     </row>
-    <row r="72" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="9:10">
       <c r="I72" s="3"/>
       <c r="J72" s="7"/>
     </row>
-    <row r="73" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="9:10">
       <c r="I73" s="3"/>
       <c r="J73" s="7"/>
     </row>
-    <row r="74" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="9:10">
       <c r="I74" s="3"/>
       <c r="J74" s="7"/>
     </row>
-    <row r="75" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="9:10">
       <c r="I75" s="3"/>
       <c r="J75" s="7"/>
     </row>
-    <row r="76" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="9:10">
       <c r="I76" s="3"/>
       <c r="J76" s="7"/>
     </row>
-    <row r="77" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="9:10">
       <c r="I77" s="3"/>
       <c r="J77" s="7"/>
     </row>
-    <row r="78" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="9:10">
       <c r="I78" s="3"/>
     </row>
-    <row r="79" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="9:10">
       <c r="I79" s="3"/>
     </row>
-    <row r="80" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="9:10">
       <c r="I80" s="3"/>
     </row>
-    <row r="81" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="9:9">
       <c r="I81" s="3"/>
     </row>
-    <row r="82" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="9:9">
       <c r="I82" s="3"/>
     </row>
-    <row r="83" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="9:9">
       <c r="I83" s="3"/>
     </row>
-    <row r="84" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="9:9">
       <c r="I84" s="3"/>
     </row>
-    <row r="85" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="9:9">
       <c r="I85" s="3"/>
     </row>
-    <row r="86" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="9:9">
       <c r="I86" s="3"/>
     </row>
-    <row r="87" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="9:9">
       <c r="I87" s="3"/>
     </row>
-    <row r="88" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="9:9">
       <c r="I88" s="3"/>
     </row>
-    <row r="89" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="9:9">
       <c r="I89" s="3"/>
     </row>
-    <row r="90" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="9:9">
       <c r="I90" s="3"/>
     </row>
-    <row r="91" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="9:9">
       <c r="I91" s="3"/>
     </row>
-    <row r="92" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="9:9">
       <c r="I92" s="3"/>
     </row>
-    <row r="93" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="9:9">
       <c r="I93" s="3"/>
     </row>
-    <row r="94" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="9:9">
       <c r="I94" s="3"/>
     </row>
-    <row r="95" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="9:9">
       <c r="I95" s="3"/>
     </row>
-    <row r="96" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="9:9">
       <c r="I96" s="3"/>
     </row>
   </sheetData>
@@ -15573,12 +15573,12 @@
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="13" max="13" width="52.33203125" customWidth="1"/>
+    <col min="13" max="13" width="52.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -15634,7 +15634,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" s="6" customFormat="1">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -15665,7 +15665,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>2</v>
       </c>
@@ -15708,7 +15708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>3</v>
       </c>
@@ -15751,7 +15751,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="47" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" s="47" customFormat="1">
       <c r="A5" s="47">
         <v>4</v>
       </c>
@@ -15785,7 +15785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>5</v>
       </c>
@@ -15834,7 +15834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" s="6" customFormat="1">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -15886,7 +15886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>7</v>
       </c>
@@ -15929,7 +15929,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" s="15" customFormat="1">
       <c r="A9" s="46">
         <v>8</v>
       </c>
@@ -15975,7 +15975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>9</v>
       </c>
@@ -16012,7 +16012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>10</v>
       </c>
@@ -16061,7 +16061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" s="6" customFormat="1">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -16107,7 +16107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -16147,11 +16147,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18">
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18">
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="P15">
@@ -16159,7 +16159,7 @@
         <v>11.916666666666666</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
         <v>260</v>
       </c>
@@ -16172,7 +16172,7 @@
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>1</v>
       </c>
@@ -16185,7 +16185,7 @@
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>2</v>
       </c>
@@ -16198,7 +16198,7 @@
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>3</v>
       </c>
@@ -16211,235 +16211,235 @@
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10">
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10">
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10">
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10">
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10">
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10">
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10">
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10">
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10">
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10">
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10">
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10">
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
     </row>
-    <row r="33" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="9:10">
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
     </row>
-    <row r="34" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="9:10">
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
     </row>
-    <row r="35" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="9:10">
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
     </row>
-    <row r="36" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="9:10">
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
     </row>
-    <row r="37" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="9:10">
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
     </row>
-    <row r="38" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="9:10">
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
     </row>
-    <row r="39" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="9:10">
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
     </row>
-    <row r="40" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="9:10">
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
     </row>
-    <row r="41" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="9:10">
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
     </row>
-    <row r="42" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="9:10">
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
     </row>
-    <row r="43" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="9:10">
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
     </row>
-    <row r="44" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="9:10">
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
     </row>
-    <row r="45" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="9:10">
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
     </row>
-    <row r="46" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="9:10">
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
     </row>
-    <row r="47" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="9:10">
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
     </row>
-    <row r="48" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="9:10">
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
     </row>
-    <row r="49" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="9:10">
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
     </row>
-    <row r="50" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="9:10">
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
     </row>
-    <row r="51" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="9:10">
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
     </row>
-    <row r="52" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="9:10">
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
     </row>
-    <row r="53" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="9:10">
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
     </row>
-    <row r="54" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="9:10">
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
     </row>
-    <row r="55" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="9:10">
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
     </row>
-    <row r="56" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="9:10">
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
     </row>
-    <row r="57" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="9:10">
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
     </row>
-    <row r="58" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="9:10">
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
     </row>
-    <row r="59" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="9:10">
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
     </row>
-    <row r="60" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="9:10">
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
     </row>
-    <row r="61" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="9:10">
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
     </row>
-    <row r="62" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="9:10">
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
     </row>
-    <row r="63" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="9:10">
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
     </row>
-    <row r="64" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="9:10">
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
     </row>
-    <row r="65" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="9:10">
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
     </row>
-    <row r="66" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="9:10">
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
     </row>
-    <row r="67" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="9:10">
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
     </row>
-    <row r="68" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="9:10">
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
     </row>
-    <row r="69" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="9:10">
       <c r="I69" s="7"/>
       <c r="J69" s="7"/>
     </row>
-    <row r="70" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="9:10">
       <c r="I70" s="7"/>
       <c r="J70" s="7"/>
     </row>
-    <row r="71" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="9:10">
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
     </row>
-    <row r="72" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="9:10">
       <c r="I72" s="7"/>
       <c r="J72" s="7"/>
     </row>
-    <row r="73" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="9:10">
       <c r="I73" s="7"/>
       <c r="J73" s="7"/>
     </row>
-    <row r="74" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="9:10">
       <c r="I74" s="7"/>
       <c r="J74" s="7"/>
     </row>
-    <row r="75" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="9:10">
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
     </row>
-    <row r="76" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="9:10">
       <c r="I76" s="7"/>
       <c r="J76" s="7"/>
     </row>
-    <row r="77" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="9:10">
       <c r="I77" s="7"/>
       <c r="J77" s="7"/>
     </row>
@@ -16473,13 +16473,13 @@
       <selection activeCell="A79" sqref="A79:C82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="13" max="13" width="41.6640625" customWidth="1"/>
-    <col min="14" max="14" width="16.33203125" customWidth="1"/>
+    <col min="13" max="13" width="41.625" customWidth="1"/>
+    <col min="14" max="14" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -16535,7 +16535,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>1</v>
       </c>
@@ -16569,7 +16569,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>2</v>
       </c>
@@ -16609,7 +16609,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>3</v>
       </c>
@@ -16646,7 +16646,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>4</v>
       </c>
@@ -16683,7 +16683,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -16702,7 +16702,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -16729,7 +16729,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -16748,7 +16748,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -16767,7 +16767,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>9</v>
       </c>
@@ -16795,7 +16795,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>10</v>
       </c>
@@ -16835,7 +16835,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" s="6" customFormat="1">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -16854,7 +16854,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>12</v>
       </c>
@@ -16891,7 +16891,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -16910,7 +16910,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -16929,7 +16929,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -16948,7 +16948,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -16967,7 +16967,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>17</v>
       </c>
@@ -16998,7 +16998,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" s="11" customFormat="1">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -17038,7 +17038,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>19</v>
       </c>
@@ -17078,7 +17078,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>20</v>
       </c>
@@ -17118,7 +17118,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22">
         <v>21</v>
       </c>
@@ -17146,7 +17146,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23">
         <v>22</v>
       </c>
@@ -17165,7 +17165,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13">
       <c r="A24">
         <v>23</v>
       </c>
@@ -17196,7 +17196,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13">
       <c r="A25">
         <v>24</v>
       </c>
@@ -17233,7 +17233,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" s="15" customFormat="1">
       <c r="A26" s="15">
         <v>25</v>
       </c>
@@ -17267,7 +17267,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13">
       <c r="A27">
         <v>26</v>
       </c>
@@ -17289,7 +17289,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -17308,7 +17308,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -17327,7 +17327,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -17346,7 +17346,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -17365,7 +17365,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13">
       <c r="A32">
         <v>31</v>
       </c>
@@ -17390,7 +17390,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13">
       <c r="A33">
         <v>32</v>
       </c>
@@ -17418,7 +17418,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" s="6" customFormat="1" ht="17.25">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -17440,7 +17440,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13">
       <c r="A35">
         <v>34</v>
       </c>
@@ -17462,7 +17462,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -17481,7 +17481,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -17500,7 +17500,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -17519,7 +17519,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -17538,7 +17538,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13">
       <c r="A40">
         <v>39</v>
       </c>
@@ -17566,7 +17566,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13">
       <c r="A41">
         <v>40</v>
       </c>
@@ -17601,7 +17601,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13">
       <c r="A42">
         <v>41</v>
       </c>
@@ -17633,7 +17633,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13">
       <c r="A43">
         <v>42</v>
       </c>
@@ -17653,7 +17653,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -17673,7 +17673,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -17693,7 +17693,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -17713,7 +17713,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -17733,7 +17733,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13">
       <c r="A48">
         <v>47</v>
       </c>
@@ -17756,7 +17756,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13">
       <c r="A49">
         <v>48</v>
       </c>
@@ -17782,7 +17782,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" ht="17.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -17805,7 +17805,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13">
       <c r="A51">
         <v>50</v>
       </c>
@@ -17828,7 +17828,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -17848,7 +17848,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" s="15" customFormat="1">
       <c r="A53" s="46">
         <v>52</v>
       </c>
@@ -17868,7 +17868,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -17888,7 +17888,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -17908,7 +17908,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13">
       <c r="A56">
         <v>55</v>
       </c>
@@ -17931,7 +17931,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13">
       <c r="A57">
         <v>56</v>
       </c>
@@ -17966,7 +17966,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13">
       <c r="A58">
         <v>57</v>
       </c>
@@ -17986,7 +17986,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13">
       <c r="A59">
         <v>58</v>
       </c>
@@ -18018,7 +18018,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -18041,7 +18041,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -18061,7 +18061,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -18081,7 +18081,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -18101,7 +18101,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13">
       <c r="A64">
         <v>63</v>
       </c>
@@ -18130,7 +18130,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13">
       <c r="A65">
         <v>64</v>
       </c>
@@ -18162,7 +18162,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13">
       <c r="A66">
         <v>65</v>
       </c>
@@ -18197,7 +18197,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13">
       <c r="A67">
         <v>66</v>
       </c>
@@ -18220,7 +18220,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -18240,7 +18240,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -18260,7 +18260,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -18280,7 +18280,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -18300,7 +18300,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="72" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" s="6" customFormat="1">
       <c r="A72" s="6">
         <v>71</v>
       </c>
@@ -18325,7 +18325,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13">
       <c r="A73">
         <v>72</v>
       </c>
@@ -18363,7 +18363,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13">
       <c r="A74">
         <v>73</v>
       </c>
@@ -18401,7 +18401,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13">
       <c r="A75">
         <v>74</v>
       </c>
@@ -18439,7 +18439,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13">
       <c r="A76">
         <v>75</v>
       </c>
@@ -18474,7 +18474,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13">
       <c r="A77">
         <v>76</v>
       </c>
@@ -18494,10 +18494,10 @@
         <v>126</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13">
       <c r="K78" s="22"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13">
       <c r="A79" t="s">
         <v>260</v>
       </c>
@@ -18509,7 +18509,7 @@
       </c>
       <c r="K79" s="22"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13">
       <c r="A80">
         <v>1</v>
       </c>
@@ -18521,7 +18521,7 @@
       </c>
       <c r="K80" s="22"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11">
       <c r="A81">
         <v>2</v>
       </c>
@@ -18533,7 +18533,7 @@
       </c>
       <c r="K81" s="22"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11">
       <c r="A82">
         <v>3</v>
       </c>
@@ -18545,7 +18545,7 @@
       </c>
       <c r="K82" s="22"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11">
       <c r="K83" s="22"/>
     </row>
   </sheetData>
@@ -18568,13 +18568,13 @@
       <selection activeCell="J39" sqref="J39:J40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="11" max="11" width="25.83203125" customWidth="1"/>
-    <col min="13" max="13" width="73.33203125" customWidth="1"/>
+    <col min="11" max="11" width="25.875" customWidth="1"/>
+    <col min="13" max="13" width="73.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -18630,7 +18630,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>1</v>
       </c>
@@ -18647,7 +18647,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>2</v>
       </c>
@@ -18670,7 +18670,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>3</v>
       </c>
@@ -18687,7 +18687,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>4</v>
       </c>
@@ -18717,7 +18717,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>5</v>
       </c>
@@ -18734,7 +18734,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" s="6" customFormat="1">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -18750,7 +18750,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>7</v>
       </c>
@@ -18770,7 +18770,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" s="31" customFormat="1">
       <c r="A9" s="31">
         <v>8</v>
       </c>
@@ -18786,7 +18786,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>9</v>
       </c>
@@ -18803,7 +18803,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>10</v>
       </c>
@@ -18820,7 +18820,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>11</v>
       </c>
@@ -18840,7 +18840,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" s="15" customFormat="1">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -18857,7 +18857,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>13</v>
       </c>
@@ -18874,7 +18874,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>14</v>
       </c>
@@ -18891,7 +18891,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>15</v>
       </c>
@@ -18908,7 +18908,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>16</v>
       </c>
@@ -18925,7 +18925,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" s="6" customFormat="1">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -18941,7 +18941,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>18</v>
       </c>
@@ -18958,7 +18958,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>19</v>
       </c>
@@ -18978,7 +18978,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>20</v>
       </c>
@@ -18995,7 +18995,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22">
         <v>21</v>
       </c>
@@ -19015,7 +19015,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23">
         <v>22</v>
       </c>
@@ -19032,7 +19032,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13">
       <c r="A24">
         <v>23</v>
       </c>
@@ -19052,7 +19052,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" s="15" customFormat="1">
       <c r="A25" s="15">
         <v>24</v>
       </c>
@@ -19069,7 +19069,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13">
       <c r="A26">
         <v>25</v>
       </c>
@@ -19095,7 +19095,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13">
       <c r="A27">
         <v>26</v>
       </c>
@@ -19112,7 +19112,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13">
       <c r="A28">
         <v>27</v>
       </c>
@@ -19129,7 +19129,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" s="6" customFormat="1">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -19145,7 +19145,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13">
       <c r="A30">
         <v>29</v>
       </c>
@@ -19162,7 +19162,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13">
       <c r="A31">
         <v>30</v>
       </c>
@@ -19179,7 +19179,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13">
       <c r="A32">
         <v>31</v>
       </c>
@@ -19196,7 +19196,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13">
       <c r="A33">
         <v>32</v>
       </c>
@@ -19213,7 +19213,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13">
       <c r="A34">
         <v>33</v>
       </c>
@@ -19230,7 +19230,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13">
       <c r="A35">
         <v>34</v>
       </c>
@@ -19247,7 +19247,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13">
       <c r="A36">
         <v>35</v>
       </c>
@@ -19264,167 +19264,167 @@
         <v>148</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13">
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13">
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13">
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13">
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13">
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13">
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13">
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13">
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13">
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13">
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13">
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13">
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
     </row>
-    <row r="49" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="9:10">
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
     </row>
-    <row r="50" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="9:10">
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
     </row>
-    <row r="51" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="9:10">
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
     </row>
-    <row r="52" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="9:10">
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
     </row>
-    <row r="53" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="9:10">
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
     </row>
-    <row r="54" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="9:10">
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
     </row>
-    <row r="55" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="9:10">
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
     </row>
-    <row r="56" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="9:10">
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
     </row>
-    <row r="57" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="9:10">
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
     </row>
-    <row r="58" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="9:10">
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
     </row>
-    <row r="59" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="9:10">
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
     </row>
-    <row r="60" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="9:10">
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
     </row>
-    <row r="61" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="9:10">
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
     </row>
-    <row r="62" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="9:10">
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
     </row>
-    <row r="63" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="9:10">
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
     </row>
-    <row r="64" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="9:10">
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
     </row>
-    <row r="65" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="9:10">
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
     </row>
-    <row r="66" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="9:10">
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
     </row>
-    <row r="67" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="9:10">
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
     </row>
-    <row r="68" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="9:10">
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
     </row>
-    <row r="69" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="9:10">
       <c r="I69" s="7"/>
       <c r="J69" s="7"/>
     </row>
-    <row r="70" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="9:10">
       <c r="I70" s="7"/>
       <c r="J70" s="7"/>
     </row>
-    <row r="71" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="9:10">
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
     </row>
-    <row r="72" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="9:10">
       <c r="I72" s="7"/>
       <c r="J72" s="7"/>
     </row>
-    <row r="73" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="9:10">
       <c r="I73" s="7"/>
       <c r="J73" s="7"/>
     </row>
-    <row r="74" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="9:10">
       <c r="I74" s="7"/>
       <c r="J74" s="7"/>
     </row>
-    <row r="75" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="9:10">
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
     </row>
-    <row r="76" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="9:10">
       <c r="I76" s="7"/>
       <c r="J76" s="7"/>
     </row>
-    <row r="77" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="9:10">
       <c r="I77" s="7"/>
       <c r="J77" s="7"/>
     </row>
@@ -19455,12 +19455,12 @@
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="13" max="13" width="56.33203125" customWidth="1"/>
+    <col min="13" max="13" width="56.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -19516,7 +19516,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>1</v>
       </c>
@@ -19532,7 +19532,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>2</v>
       </c>
@@ -19551,7 +19551,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>3</v>
       </c>
@@ -19573,7 +19573,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" s="31" customFormat="1">
       <c r="A5" s="31">
         <v>4</v>
       </c>
@@ -19589,7 +19589,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>5</v>
       </c>
@@ -19605,7 +19605,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>6</v>
       </c>
@@ -19624,7 +19624,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" s="6" customFormat="1">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -19643,7 +19643,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" s="15" customFormat="1">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -19659,7 +19659,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>9</v>
       </c>
@@ -19675,7 +19675,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>10</v>
       </c>
@@ -19700,7 +19700,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>11</v>
       </c>
@@ -19722,7 +19722,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>12</v>
       </c>
@@ -19747,7 +19747,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" s="6" customFormat="1">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -19766,7 +19766,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>14</v>
       </c>
@@ -19800,7 +19800,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>15</v>
       </c>
@@ -19834,7 +19834,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>16</v>
       </c>
@@ -19850,7 +19850,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" s="15" customFormat="1">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -19872,7 +19872,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>18</v>
       </c>
@@ -19894,7 +19894,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" s="6" customFormat="1">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -19919,7 +19919,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>20</v>
       </c>
@@ -19935,7 +19935,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22">
         <v>21</v>
       </c>
@@ -19951,7 +19951,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23">
         <v>22</v>
       </c>
@@ -19976,7 +19976,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13">
       <c r="A24">
         <v>23</v>
       </c>
@@ -19998,7 +19998,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13">
       <c r="A25">
         <v>24</v>
       </c>
@@ -20023,7 +20023,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13">
       <c r="A26">
         <v>25</v>
       </c>
@@ -20039,15 +20039,15 @@
         <v>164</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13">
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13">
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
         <v>272</v>
       </c>
@@ -20060,7 +20060,7 @@
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13">
       <c r="A30">
         <v>1</v>
       </c>
@@ -20073,7 +20073,7 @@
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13">
       <c r="A31">
         <v>2</v>
       </c>
@@ -20086,7 +20086,7 @@
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13">
       <c r="A32">
         <v>3</v>
       </c>
@@ -20099,183 +20099,183 @@
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
     </row>
-    <row r="33" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="9:10">
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
     </row>
-    <row r="34" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="9:10">
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
     </row>
-    <row r="35" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="9:10">
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
     </row>
-    <row r="36" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="9:10">
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
     </row>
-    <row r="37" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="9:10">
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
     </row>
-    <row r="38" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="9:10">
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
     </row>
-    <row r="39" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="9:10">
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
     </row>
-    <row r="40" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="9:10">
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
     </row>
-    <row r="41" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="9:10">
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
     </row>
-    <row r="42" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="9:10">
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
     </row>
-    <row r="43" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="9:10">
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
     </row>
-    <row r="44" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="9:10">
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
     </row>
-    <row r="45" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="9:10">
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
     </row>
-    <row r="46" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="9:10">
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
     </row>
-    <row r="47" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="9:10">
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
     </row>
-    <row r="48" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="9:10">
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
     </row>
-    <row r="49" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="9:10">
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
     </row>
-    <row r="50" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="9:10">
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
     </row>
-    <row r="51" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="9:10">
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
     </row>
-    <row r="52" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="9:10">
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
     </row>
-    <row r="53" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="9:10">
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
     </row>
-    <row r="54" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="9:10">
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
     </row>
-    <row r="55" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="9:10">
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
     </row>
-    <row r="56" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="9:10">
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
     </row>
-    <row r="57" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="9:10">
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
     </row>
-    <row r="58" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="9:10">
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
     </row>
-    <row r="59" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="9:10">
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
     </row>
-    <row r="60" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="9:10">
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
     </row>
-    <row r="61" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="9:10">
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
     </row>
-    <row r="62" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="9:10">
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
     </row>
-    <row r="63" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="9:10">
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
     </row>
-    <row r="64" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="9:10">
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
     </row>
-    <row r="65" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="9:10">
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
     </row>
-    <row r="66" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="9:10">
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
     </row>
-    <row r="67" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="9:10">
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
     </row>
-    <row r="68" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="9:10">
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
     </row>
-    <row r="69" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="9:10">
       <c r="I69" s="7"/>
       <c r="J69" s="7"/>
     </row>
-    <row r="70" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="9:10">
       <c r="I70" s="7"/>
       <c r="J70" s="7"/>
     </row>
-    <row r="71" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="9:10">
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
     </row>
-    <row r="72" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="9:10">
       <c r="I72" s="7"/>
       <c r="J72" s="7"/>
     </row>
-    <row r="73" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="9:10">
       <c r="I73" s="7"/>
       <c r="J73" s="7"/>
     </row>
-    <row r="74" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="9:10">
       <c r="I74" s="7"/>
       <c r="J74" s="7"/>
     </row>
-    <row r="75" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="9:10">
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
     </row>
-    <row r="76" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="9:10">
       <c r="I76" s="7"/>
       <c r="J76" s="7"/>
     </row>
-    <row r="77" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="9:10">
       <c r="I77" s="7"/>
       <c r="J77" s="7"/>
     </row>
